--- a/Game/Buildings/building_requirements/all_buildings.xlsx
+++ b/Game/Buildings/building_requirements/all_buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balal\OneDrive\Documentos\Msc\Reinforcement Learning\TW-Agent\Game\Buildings\building_requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{F8D7C650-65AB-4F48-B34B-7ADC64015F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6CBD36-55EC-4230-B6B3-F063D8C7463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="17" xr2:uid="{4DA1D12E-9950-4A5A-8872-4F978F21F1A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="13" xr2:uid="{4DA1D12E-9950-4A5A-8872-4F978F21F1A3}"/>
   </bookViews>
   <sheets>
     <sheet name="timber" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,6 @@
     <definedName name="DatosExternos_9" localSheetId="10" hidden="1">'rally_point'!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="311">
   <si>
     <t>level</t>
   </si>
@@ -416,234 +415,144 @@
     <t>1</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>143</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>227</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>286</t>
-  </si>
-  <si>
     <t>2 /  11</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>360</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>454</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>572</t>
-  </si>
-  <si>
     <t>3 /  18</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>908</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>1144</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>1441</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>1816</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
-    <t>2288</t>
-  </si>
-  <si>
     <t>7 /  45</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>2883</t>
-  </si>
-  <si>
     <t>8 /  53</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>3632</t>
-  </si>
-  <si>
     <t>9 /  62</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>4577</t>
-  </si>
-  <si>
     <t>10 /  72</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>5767</t>
-  </si>
-  <si>
     <t>12 /  84</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>7266</t>
-  </si>
-  <si>
     <t>15 /  99</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>9155</t>
-  </si>
-  <si>
     <t>17 /  116</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>11,535</t>
-  </si>
-  <si>
     <t>19 /  135</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>14,534</t>
-  </si>
-  <si>
     <t>23 /  158</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>18,313</t>
-  </si>
-  <si>
     <t>27 /  185</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>23,075</t>
-  </si>
-  <si>
     <t>31 /  216</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>29,074</t>
-  </si>
-  <si>
     <t>37 /  253</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>36,633</t>
-  </si>
-  <si>
     <t>43 /  296</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>46,158</t>
-  </si>
-  <si>
     <t>51 /  347</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>58,159</t>
-  </si>
-  <si>
     <t>59 /  406</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>73,280</t>
-  </si>
-  <si>
     <t>69 /  475</t>
   </si>
   <si>
@@ -1016,178 +925,118 @@
     <t>1 /  5</t>
   </si>
   <si>
-    <t>12,000</t>
-  </si>
-  <si>
     <t>500 /  500</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
-    <t>14,040</t>
-  </si>
-  <si>
     <t>90 /  590</t>
   </si>
   <si>
     <t>1.3</t>
   </si>
   <si>
-    <t>16,427</t>
-  </si>
-  <si>
     <t>106 /  696</t>
   </si>
   <si>
     <t>1.5</t>
   </si>
   <si>
-    <t>19,219</t>
-  </si>
-  <si>
     <t>126 /  822</t>
   </si>
   <si>
     <t>1.7</t>
   </si>
   <si>
-    <t>22,487</t>
-  </si>
-  <si>
     <t>147 /  969</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>26,309</t>
-  </si>
-  <si>
     <t>175 /  1144</t>
   </si>
   <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>30,782</t>
-  </si>
-  <si>
     <t>206 /  1350</t>
   </si>
   <si>
     <t>2.6</t>
   </si>
   <si>
-    <t>36,015</t>
-  </si>
-  <si>
     <t>243 /  1593</t>
   </si>
   <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>42,137</t>
-  </si>
-  <si>
     <t>286 /  1879</t>
   </si>
   <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>49,301</t>
-  </si>
-  <si>
     <t>339 /  2218</t>
   </si>
   <si>
     <t>3.9</t>
   </si>
   <si>
-    <t>57,682</t>
-  </si>
-  <si>
     <t>399 /  2617</t>
   </si>
   <si>
     <t>4.4</t>
   </si>
   <si>
-    <t>67,488</t>
-  </si>
-  <si>
     <t>471 /  3088</t>
   </si>
   <si>
     <t>5.1</t>
   </si>
   <si>
-    <t>78,961</t>
-  </si>
-  <si>
     <t>556 /  3644</t>
   </si>
   <si>
     <t>5.8</t>
   </si>
   <si>
-    <t>92,384</t>
-  </si>
-  <si>
     <t>656 /  4300</t>
   </si>
   <si>
     <t>6.7</t>
   </si>
   <si>
-    <t>108,089</t>
-  </si>
-  <si>
     <t>774 /  5074</t>
   </si>
   <si>
     <t>7.6</t>
   </si>
   <si>
-    <t>126,465</t>
-  </si>
-  <si>
     <t>913 /  5987</t>
   </si>
   <si>
     <t>8.7</t>
   </si>
   <si>
-    <t>147,964</t>
-  </si>
-  <si>
     <t>1078 /  7065</t>
   </si>
   <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>173,117</t>
-  </si>
-  <si>
     <t>1271 /  8336</t>
   </si>
   <si>
     <t>11.5</t>
   </si>
   <si>
-    <t>202,547</t>
-  </si>
-  <si>
     <t>1501 /  9837</t>
   </si>
   <si>
     <t>13.1</t>
-  </si>
-  <si>
-    <t>236,981</t>
   </si>
   <si>
     <t>1770 /  11607</t>
@@ -1270,18 +1119,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="51">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1292,55 +1152,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1434,6 +1246,45 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1636,7 +1487,7 @@
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="7" xr16:uid="{93EA1B30-504F-48A6-B6CB-6DC6BB8D313E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
+  <queryTableRefresh nextId="11">
     <queryTableFields count="6">
       <queryTableField id="1" name="Level 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19 20 21 22 23 24 25 26 27 28 29 30" tableColumnId="1"/>
       <queryTableField id="2" name="Requirements 90  80  70 113  102  88 143  130  111 180  166  140 227  211  176 2" tableColumnId="2"/>
@@ -1655,7 +1506,7 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="4" xr16:uid="{638D26F9-A1CD-47C6-8167-4C8A1D3A9C35}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
+  <queryTableRefresh nextId="10">
     <queryTableFields count="6">
       <queryTableField id="1" name="Level" tableColumnId="1"/>
       <queryTableField id="2" name="Requirements.1" tableColumnId="2"/>
@@ -1670,7 +1521,7 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" connectionId="9" xr16:uid="{C5B62CC6-0FB8-4380-80AA-78677A9FCEB4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
+  <queryTableRefresh nextId="12">
     <queryTableFields count="6">
       <queryTableField id="1" name="Level" tableColumnId="1"/>
       <queryTableField id="2" name="Requirements.1" tableColumnId="2"/>
@@ -1689,7 +1540,7 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_16" connectionId="17" xr16:uid="{21D3FD11-C8DA-456C-B737-3FC398CA91C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
+  <queryTableRefresh nextId="10">
     <queryTableFields count="6">
       <queryTableField id="1" name="Level 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19 20" tableColumnId="1"/>
       <queryTableField id="2" name="Requirements 12,000  14,000  10000 14,040  16,380  11,800 16,427  19,165  13,924" tableColumnId="2"/>
@@ -1805,11 +1656,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15B4A66E-CD2B-4834-9B23-B10701FF0A8B}" name="wood" displayName="wood" ref="A1:F31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F31" xr:uid="{15B4A66E-CD2B-4834-9B23-B10701FF0A8B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6876E162-7F45-4E8F-BB6D-D8D400581959}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E7A1AC4C-508D-43A1-A410-D0B3C131E718}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0AA44135-E873-44D3-A15F-643A7836EB6F}" uniqueName="3" name="clay" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{E6E2F45A-6A82-4619-8308-C9253872E3D9}" uniqueName="4" name="iron" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{0CD0450C-AE08-4CD0-9449-90ADA0508276}" uniqueName="5" name="workers/total" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{6876E162-7F45-4E8F-BB6D-D8D400581959}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{E7A1AC4C-508D-43A1-A410-D0B3C131E718}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{0AA44135-E873-44D3-A15F-643A7836EB6F}" uniqueName="3" name="clay" queryTableFieldId="3" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{E6E2F45A-6A82-4619-8308-C9253872E3D9}" uniqueName="4" name="iron" queryTableFieldId="4" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{0CD0450C-AE08-4CD0-9449-90ADA0508276}" uniqueName="5" name="workers/total" queryTableFieldId="5" dataDxfId="46"/>
     <tableColumn id="6" xr3:uid="{D34B901C-81CE-4E59-87CE-AAAF4170B1BC}" uniqueName="6" name="new_production" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1824,7 +1675,7 @@
     <tableColumn id="2" xr3:uid="{49599AEA-DC79-4519-AC6A-C0293A378C4A}" uniqueName="2" name="wood" queryTableFieldId="2"/>
     <tableColumn id="4" xr3:uid="{0A224EDF-C02D-4D1B-BB89-5F23EA009DB4}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{EFA8E376-1EBF-4EE1-AF12-12E1D67C40F5}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{5CAB603E-F700-43BB-847B-07ED4287AB19}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{5CAB603E-F700-43BB-847B-07ED4287AB19}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1838,7 +1689,7 @@
     <tableColumn id="2" xr3:uid="{AC29F000-4203-4E77-AB32-0BEE0935C3CA}" uniqueName="2" name="wood" queryTableFieldId="2"/>
     <tableColumn id="4" xr3:uid="{C5784A16-1C24-433E-91FF-6CB5253E5CA2}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{E54A0322-1A44-448D-BBBE-FEEE5C292FBE}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{C9EACFBF-D99B-42BF-9B1C-2E6CCB824F3B}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{C9EACFBF-D99B-42BF-9B1C-2E6CCB824F3B}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1852,7 +1703,7 @@
     <tableColumn id="2" xr3:uid="{6CE0AA8B-E926-49FB-B12A-6A281D86B58A}" uniqueName="2" name="wood" queryTableFieldId="2"/>
     <tableColumn id="4" xr3:uid="{51C4C464-2662-4D58-8C9A-9ED0E39D0098}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{20BFE12B-22D1-4E18-9DFD-9747359A3BD3}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{C6A276A9-52A4-486C-A15E-CB290C5BC942}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{C6A276A9-52A4-486C-A15E-CB290C5BC942}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="25"/>
     <tableColumn id="8" xr3:uid="{EBD0C612-E32F-49DD-B231-068534E67A45}" uniqueName="8" name="time_factor" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1867,7 +1718,7 @@
     <tableColumn id="2" xr3:uid="{63932BA2-0827-42D0-BE7C-B3D78326EBE1}" uniqueName="2" name="wood" queryTableFieldId="2"/>
     <tableColumn id="4" xr3:uid="{7F5D853D-780F-4A46-8DB4-F34110195B84}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{0FFB31FA-EBE3-4834-82A1-C6A0D2A038AB}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{F4AFD8A7-E10E-465B-8408-280E75F15288}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{F4AFD8A7-E10E-465B-8408-280E75F15288}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="24"/>
     <tableColumn id="8" xr3:uid="{4055149C-C722-45DF-9584-0370F70E9E0F}" uniqueName="8" name="time_factor" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1882,22 +1733,22 @@
     <tableColumn id="2" xr3:uid="{E1BF0CF9-DDA5-4F55-A831-19A815C4AC96}" uniqueName="2" name="wood" queryTableFieldId="2"/>
     <tableColumn id="4" xr3:uid="{9BCC5B44-B3B3-4992-BD44-3654582C2742}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{7C11D5D4-6DF5-46FE-8B85-695019A6A20C}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{D193B69D-1968-4369-8E25-20F97C629C30}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{D193B69D-1968-4369-8E25-20F97C629C30}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1830E354-D35D-404B-B608-7199685B3F88}" name="church" displayName="church" ref="A1:F4" tableType="queryTable" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1830E354-D35D-404B-B608-7199685B3F88}" name="church" displayName="church" ref="A1:F4" tableType="queryTable" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:F4" xr:uid="{1830E354-D35D-404B-B608-7199685B3F88}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ABC2EC0D-C7F4-41F6-A261-CDF002362F8E}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{A603703B-DCF9-43EE-B941-87FAF68871DF}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{ABC2EC0D-C7F4-41F6-A261-CDF002362F8E}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A603703B-DCF9-43EE-B941-87FAF68871DF}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{7323782A-6641-4595-9AB1-09F31D42C757}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{5FC89425-EB60-46FB-8A0F-0F3CAD48E7EA}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{747E4E82-6099-45DC-9491-251C038DE867}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{388DCDA5-7D16-4984-BB01-001D93F20527}" uniqueName="8" name="influence_area" queryTableFieldId="8" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{747E4E82-6099-45DC-9491-251C038DE867}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{388DCDA5-7D16-4984-BB01-001D93F20527}" uniqueName="8" name="influence_area" queryTableFieldId="8" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1907,12 +1758,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D97E2411-2F5F-4E84-A9B1-6BB7154A602E}" name="workshop" displayName="workshop" ref="A1:F16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F16" xr:uid="{D97E2411-2F5F-4E84-A9B1-6BB7154A602E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C710ABB7-8FF0-4BFE-ABC6-C1CC9F59D3E3}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{7627175F-068A-4B99-9F58-2A3CE4971244}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{C710ABB7-8FF0-4BFE-ABC6-C1CC9F59D3E3}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{7627175F-068A-4B99-9F58-2A3CE4971244}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{94675E28-B635-40B2-A0F5-DEAE74193F38}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{01C024F5-36B1-43F0-B328-028D6B4825AE}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{041BC631-1FA0-4621-8922-BBABCC0F89C5}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{AF0E8009-B1F7-4AF4-A9A9-E4B7B835E7D6}" uniqueName="3" name="time_factor" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{041BC631-1FA0-4621-8922-BBABCC0F89C5}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{AF0E8009-B1F7-4AF4-A9A9-E4B7B835E7D6}" uniqueName="3" name="time_factor" queryTableFieldId="9" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1922,12 +1773,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{41B54C74-23FB-44C9-A113-CF41A32E2C03}" name="stable" displayName="stable" ref="A1:F21" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F21" xr:uid="{41B54C74-23FB-44C9-A113-CF41A32E2C03}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{790240AD-7F00-449F-866B-37FF6AEE3569}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{C921510F-B0F9-466A-958A-0FE9DA881855}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{790240AD-7F00-449F-866B-37FF6AEE3569}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C921510F-B0F9-466A-958A-0FE9DA881855}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{5DBF68D9-52F5-417C-A295-061651E87CF1}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{1B3653AF-2A6E-4C95-969F-BDCB8DDA8902}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{903D5817-B137-4924-9646-34AA9E5311A8}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{D4DC3B43-09AA-4AEE-B1C9-D83F5B0C0872}" uniqueName="3" name="time_factor" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{903D5817-B137-4924-9646-34AA9E5311A8}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D4DC3B43-09AA-4AEE-B1C9-D83F5B0C0872}" uniqueName="3" name="time_factor" queryTableFieldId="9" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1937,12 +1788,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF922F63-2942-41BA-B9EE-0764A4F33A37}" name="barracks" displayName="barracks" ref="A1:F26" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F26" xr:uid="{DF922F63-2942-41BA-B9EE-0764A4F33A37}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B4627030-048C-48F1-AF7E-F4A4459ED73E}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{C3BB8C15-3A8C-4C4F-9677-C4BEEC9173C2}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{B4627030-048C-48F1-AF7E-F4A4459ED73E}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C3BB8C15-3A8C-4C4F-9677-C4BEEC9173C2}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{FB318CCC-6B4D-4197-9CE5-E5F498A98B90}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{12BA2D6E-D354-4A2D-8617-D6BF8E2EF51A}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{D9C940EC-9627-4E37-B4D7-57CA63FBECE9}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{31F4C895-1AE1-4C7B-8DE4-C9354F6374F1}" uniqueName="3" name="time_factor" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{D9C940EC-9627-4E37-B4D7-57CA63FBECE9}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{31F4C895-1AE1-4C7B-8DE4-C9354F6374F1}" uniqueName="3" name="time_factor" queryTableFieldId="9" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1952,12 +1803,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{34743637-351F-423E-8326-F6140868C661}" name="headquarters" displayName="headquarters" ref="A1:F31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F31" xr:uid="{34743637-351F-423E-8326-F6140868C661}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6F2E3277-24CD-44FF-810A-ED0A27A1CBE8}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{07D3FC60-83A2-43D4-897E-1E28510BB65E}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{6F2E3277-24CD-44FF-810A-ED0A27A1CBE8}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{07D3FC60-83A2-43D4-897E-1E28510BB65E}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{922E4F7A-A2EF-437D-B9D7-5156369028DA}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{19729AF3-4388-4D55-BACD-F17E1496B0CC}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{C06B00EE-15F0-495B-BDAD-759893BBB784}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{11B2F81B-1515-4C83-80F1-0370FBAF9527}" uniqueName="8" name="time_factor" queryTableFieldId="8" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{C06B00EE-15F0-495B-BDAD-759893BBB784}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{11B2F81B-1515-4C83-80F1-0370FBAF9527}" uniqueName="8" name="time_factor" queryTableFieldId="8" dataDxfId="2" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1967,11 +1818,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B17908B4-3D95-41E3-AE12-2A445CCB97FF}" name="clay" displayName="clay" ref="A1:F31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F31" xr:uid="{B17908B4-3D95-41E3-AE12-2A445CCB97FF}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8D8FE1F0-D446-44BA-9AF8-DB85D1CCE97D}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{25EB9C2B-077D-43C1-BCCE-41E0844A480E}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B20E290B-39B8-4E81-8214-A887E1728E77}" uniqueName="3" name="clay" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{B7173F9C-9C54-4A5A-B552-CAA4458C9EE2}" uniqueName="4" name="iron" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{FCA8E73E-81DA-4337-ABEE-1D43C95C025D}" uniqueName="5" name="workers/total" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8D8FE1F0-D446-44BA-9AF8-DB85D1CCE97D}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{25EB9C2B-077D-43C1-BCCE-41E0844A480E}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{B20E290B-39B8-4E81-8214-A887E1728E77}" uniqueName="3" name="clay" queryTableFieldId="3" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{B7173F9C-9C54-4A5A-B552-CAA4458C9EE2}" uniqueName="4" name="iron" queryTableFieldId="4" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{FCA8E73E-81DA-4337-ABEE-1D43C95C025D}" uniqueName="5" name="workers/total" queryTableFieldId="5" dataDxfId="41"/>
     <tableColumn id="6" xr3:uid="{3EBC1D20-9E55-4292-9792-06201690E648}" uniqueName="6" name="new_production" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1982,11 +1833,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DC7213B3-1976-4E2A-A275-D1E4AAF846CB}" name="iron" displayName="iron" ref="A1:F31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F31" xr:uid="{DC7213B3-1976-4E2A-A275-D1E4AAF846CB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D2F668F7-3E40-43D3-BD95-42D0C4809F78}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{D415FBBD-C543-4A80-9598-7EFEC3D3C0B5}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{5BD5D639-31F7-4DDB-AE79-45D7273DD149}" uniqueName="4" name="clay" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{BD3A75F8-1820-48FC-ADED-AF254D000081}" uniqueName="6" name="iron" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{AD51D44D-ED45-4E12-BAD8-CF9BC3142DBA}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{D2F668F7-3E40-43D3-BD95-42D0C4809F78}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D415FBBD-C543-4A80-9598-7EFEC3D3C0B5}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5BD5D639-31F7-4DDB-AE79-45D7273DD149}" uniqueName="4" name="clay" queryTableFieldId="4" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{BD3A75F8-1820-48FC-ADED-AF254D000081}" uniqueName="6" name="iron" queryTableFieldId="6" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{AD51D44D-ED45-4E12-BAD8-CF9BC3142DBA}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="38"/>
     <tableColumn id="8" xr3:uid="{D967D5B6-4EAA-4BC7-99E2-AA997B089FF8}" uniqueName="8" name="new_production" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1994,15 +1845,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B4F4190C-A6C5-401E-88F3-AED2B91F6CC1}" name="watchtower" displayName="watchtower" ref="A1:F21" tableType="queryTable" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B4F4190C-A6C5-401E-88F3-AED2B91F6CC1}" name="watchtower" displayName="watchtower" ref="A1:F21" tableType="queryTable" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A1:F21" xr:uid="{B4F4190C-A6C5-401E-88F3-AED2B91F6CC1}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{011EB563-04B3-49D2-B03F-23C45BE5C8C4}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{2E225A47-71F5-4EA5-9250-5E28D56618E3}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{011EB563-04B3-49D2-B03F-23C45BE5C8C4}" uniqueName="1" name="level" queryTableFieldId="1" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{2E225A47-71F5-4EA5-9250-5E28D56618E3}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="35"/>
     <tableColumn id="4" xr3:uid="{58733E4D-AF85-4ABD-AB72-D50817BEE968}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{3E31CFA5-A92C-4C8B-82F7-534D15376D8B}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{51BA226E-B1F7-46D2-A650-40924F38742F}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{F1D7D5D9-C944-44A6-BB71-A4FAC19B4BC6}" uniqueName="8" name="range" queryTableFieldId="8" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{51BA226E-B1F7-46D2-A650-40924F38742F}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{F1D7D5D9-C944-44A6-BB71-A4FAC19B4BC6}" uniqueName="8" name="range" queryTableFieldId="8" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2016,7 +1867,7 @@
     <tableColumn id="2" xr3:uid="{33055BBC-CFBA-455F-8F2D-FFFE92605FF7}" uniqueName="2" name="wood" queryTableFieldId="2"/>
     <tableColumn id="4" xr3:uid="{CDBC73D6-EF2B-430A-BCD2-8EE67A092A82}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{CAEB7BAA-337D-4886-B3F3-F038016B7126}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{7AB45BA5-A1F2-4A29-B3FB-AF80665C699B}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{7AB45BA5-A1F2-4A29-B3FB-AF80665C699B}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="32"/>
     <tableColumn id="8" xr3:uid="{5F8C4020-F93B-41F4-B5BB-E998F392F3EB}" uniqueName="8" name="factor" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2031,7 +1882,7 @@
     <tableColumn id="2" xr3:uid="{7F7CDBAF-738F-4538-A43F-40D6F94DE0A5}" uniqueName="2" name="wood" queryTableFieldId="2"/>
     <tableColumn id="4" xr3:uid="{D5C86DFC-93A9-4D98-843F-98667839A362}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{83FF2D79-A7E1-49F9-BA86-C9D529AF8795}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{25EAC74B-E8D1-46A0-B69B-72799B2944B7}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{25EAC74B-E8D1-46A0-B69B-72799B2944B7}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="31"/>
     <tableColumn id="8" xr3:uid="{E71C66F4-11C1-42D2-B7FF-B15983725CFB}" uniqueName="8" name="hidden_resources" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2046,7 +1897,7 @@
     <tableColumn id="2" xr3:uid="{A1D5ADDF-476C-49DA-AEC5-366058480804}" uniqueName="2" name="wood" queryTableFieldId="2"/>
     <tableColumn id="4" xr3:uid="{7A7FAE34-132B-4FF7-88E9-8E6874B062D3}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{2380A98A-34F0-4E07-923A-D2866CE53AF9}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{D456ABB5-F8A7-4A3E-90F4-38C19FD90334}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{D456ABB5-F8A7-4A3E-90F4-38C19FD90334}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="30"/>
     <tableColumn id="8" xr3:uid="{579453A9-6724-4BE5-9BEB-B3140BF101F2}" uniqueName="8" name="capacity" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2061,7 +1912,7 @@
     <tableColumn id="2" xr3:uid="{F91000B7-32DB-4DDE-A4A8-08FE9F220D0A}" uniqueName="2" name="wood" queryTableFieldId="2"/>
     <tableColumn id="4" xr3:uid="{7E7D31A4-2CFF-49E3-8EF1-B63DB8C66AAA}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{23F9B0D4-1E66-493F-84AB-7378AFA1D25D}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{06F45857-0C3D-41E9-ACF1-207D202BC849}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{06F45857-0C3D-41E9-ACF1-207D202BC849}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="29"/>
     <tableColumn id="8" xr3:uid="{B4449FB3-E3D3-494F-8C4D-AA0F83DE7F6B}" uniqueName="8" name="max_population" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2076,7 +1927,7 @@
     <tableColumn id="2" xr3:uid="{59A4E5B4-607D-482F-8CA6-3944A584B433}" uniqueName="2" name="wood" queryTableFieldId="2"/>
     <tableColumn id="4" xr3:uid="{E807FE02-4DF9-446B-B44B-117850E7EC3E}" uniqueName="4" name="clay" queryTableFieldId="4"/>
     <tableColumn id="6" xr3:uid="{530205F5-C8CB-4F14-96C9-815184364BDE}" uniqueName="6" name="iron" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{F561100D-8196-4A8C-958F-E41CE036E9EE}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{F561100D-8196-4A8C-958F-E41CE036E9EE}" uniqueName="7" name="workers/total" queryTableFieldId="7" dataDxfId="28"/>
     <tableColumn id="8" xr3:uid="{D854767A-2D5F-4EFC-9534-83278B7843CD}" uniqueName="8" name="merchants" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2382,7 +2233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99F56C4-9E80-47BB-A099-1C7FEB7D8408}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -3125,7 +2976,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3020,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3186,7 +3037,7 @@
         <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="F2">
         <v>0.91</v>
@@ -3206,7 +3057,7 @@
         <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="F3">
         <v>0.83</v>
@@ -3226,7 +3077,7 @@
         <v>381</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="F4">
         <v>0.75</v>
@@ -3246,7 +3097,7 @@
         <v>480</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="F5">
         <v>0.68</v>
@@ -3266,7 +3117,7 @@
         <v>605</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="F6">
         <v>0.62</v>
@@ -3286,7 +3137,7 @@
         <v>762</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="F7">
         <v>0.56000000000000005</v>
@@ -3306,7 +3157,7 @@
         <v>960</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="F8">
         <v>0.51</v>
@@ -3326,7 +3177,7 @@
         <v>1210</v>
       </c>
       <c r="E9" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="F9">
         <v>0.47</v>
@@ -3346,7 +3197,7 @@
         <v>1525</v>
       </c>
       <c r="E10" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="F10">
         <v>0.42</v>
@@ -3366,7 +3217,7 @@
         <v>1921</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="F11">
         <v>0.39</v>
@@ -3386,7 +3237,7 @@
         <v>2421</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="F12">
         <v>0.35</v>
@@ -3406,7 +3257,7 @@
         <v>3050</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F13">
         <v>0.32</v>
@@ -3426,7 +3277,7 @@
         <v>3843</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="F14">
         <v>0.28999999999999998</v>
@@ -3446,7 +3297,7 @@
         <v>4842</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="F15">
         <v>0.26</v>
@@ -3466,7 +3317,7 @@
         <v>6101</v>
       </c>
       <c r="E16" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="F16">
         <v>0.24</v>
@@ -3486,7 +3337,7 @@
         <v>7687</v>
       </c>
       <c r="E17" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F17">
         <v>0.22</v>
@@ -3506,7 +3357,7 @@
         <v>9686</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="F18">
         <v>0.2</v>
@@ -3526,7 +3377,7 @@
         <v>12204</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="F19">
         <v>0.18</v>
@@ -3546,7 +3397,7 @@
         <v>15377</v>
       </c>
       <c r="E20" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="F20">
         <v>0.16</v>
@@ -3566,7 +3417,7 @@
         <v>19375</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="F21">
         <v>0.15</v>
@@ -3613,7 +3464,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3630,7 +3481,7 @@
         <v>10000</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F2">
         <v>0.63</v>
@@ -3650,7 +3501,7 @@
         <v>20000</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="F3">
         <v>0.59</v>
@@ -3670,7 +3521,7 @@
         <v>40000</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="F4">
         <v>0.56000000000000005</v>
@@ -3688,7 +3539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DF7AE6-C82E-4217-AF9F-F21770EDA1A7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3730,7 +3581,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3784,7 +3635,7 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="C2">
         <v>20000</v>
@@ -3793,18 +3644,18 @@
         <v>5000</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="C3">
         <v>25600</v>
@@ -3813,18 +3664,18 @@
         <v>6300</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="C4">
         <v>32768</v>
@@ -3833,10 +3684,10 @@
         <v>7938</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3852,7 +3703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8BEAAF-84E7-4D78-9A23-BBAE154C829B}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G4" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
@@ -3882,7 +3733,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3890,7 +3741,7 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C2">
         <v>240</v>
@@ -3899,7 +3750,7 @@
         <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="F2">
         <v>0.63</v>
@@ -3907,10 +3758,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C3">
         <v>307</v>
@@ -3927,10 +3778,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C4">
         <v>393</v>
@@ -3939,7 +3790,7 @@
         <v>413</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4">
         <v>0.56000000000000005</v>
@@ -3947,10 +3798,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C5">
         <v>503</v>
@@ -3967,10 +3818,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="C6">
         <v>644</v>
@@ -3987,10 +3838,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C7">
         <v>825</v>
@@ -3999,7 +3850,7 @@
         <v>826</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F7">
         <v>0.47</v>
@@ -4007,10 +3858,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C8">
         <v>1056</v>
@@ -4027,10 +3878,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C9">
         <v>1351</v>
@@ -4047,10 +3898,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C10">
         <v>1729</v>
@@ -4067,10 +3918,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="C11">
         <v>2214</v>
@@ -4087,10 +3938,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="C12">
         <v>2833</v>
@@ -4107,10 +3958,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C13">
         <v>3627</v>
@@ -4119,7 +3970,7 @@
         <v>3304</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F13">
         <v>0.33</v>
@@ -4127,10 +3978,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="C14">
         <v>4642</v>
@@ -4139,7 +3990,7 @@
         <v>4163</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F14">
         <v>0.31</v>
@@ -4147,10 +3998,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="C15">
         <v>5942</v>
@@ -4159,7 +4010,7 @@
         <v>5246</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F15">
         <v>0.28999999999999998</v>
@@ -4167,10 +4018,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C16">
         <v>7606</v>
@@ -4179,7 +4030,7 @@
         <v>6609</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <v>0.28000000000000003</v>
@@ -4198,7 +4049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96A8DCC-AE61-4DCB-8068-D6BD74F32245}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G3" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
@@ -4228,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4236,7 +4087,7 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C2">
         <v>240</v>
@@ -4245,7 +4096,7 @@
         <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="F2">
         <v>0.63</v>
@@ -4253,10 +4104,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C3">
         <v>307</v>
@@ -4273,10 +4124,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C4">
         <v>393</v>
@@ -4285,7 +4136,7 @@
         <v>413</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4">
         <v>0.56000000000000005</v>
@@ -4293,10 +4144,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C5">
         <v>503</v>
@@ -4313,10 +4164,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C6">
         <v>644</v>
@@ -4333,10 +4184,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="C7">
         <v>825</v>
@@ -4345,7 +4196,7 @@
         <v>826</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F7">
         <v>0.47</v>
@@ -4353,10 +4204,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C8">
         <v>1056</v>
@@ -4373,10 +4224,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="C9">
         <v>1351</v>
@@ -4393,10 +4244,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C10">
         <v>1729</v>
@@ -4413,10 +4264,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C11">
         <v>2214</v>
@@ -4433,10 +4284,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C12">
         <v>2833</v>
@@ -4453,10 +4304,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C13">
         <v>3627</v>
@@ -4465,7 +4316,7 @@
         <v>3304</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F13">
         <v>0.33</v>
@@ -4473,10 +4324,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C14">
         <v>4642</v>
@@ -4485,7 +4336,7 @@
         <v>4163</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F14">
         <v>0.31</v>
@@ -4493,10 +4344,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C15">
         <v>5942</v>
@@ -4505,7 +4356,7 @@
         <v>5246</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F15">
         <v>0.28999999999999998</v>
@@ -4513,10 +4364,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C16">
         <v>7606</v>
@@ -4525,7 +4376,7 @@
         <v>6609</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <v>0.28000000000000003</v>
@@ -4533,10 +4384,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="C17">
         <v>9736</v>
@@ -4545,7 +4396,7 @@
         <v>8328</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F17">
         <v>0.26</v>
@@ -4553,10 +4404,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C18">
         <v>12462</v>
@@ -4565,7 +4416,7 @@
         <v>10493</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F18">
         <v>0.25</v>
@@ -4573,10 +4424,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C19">
         <v>15951</v>
@@ -4585,7 +4436,7 @@
         <v>13221</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="F19">
         <v>0.23</v>
@@ -4593,10 +4444,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C20">
         <v>20417</v>
@@ -4605,7 +4456,7 @@
         <v>16659</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="F20">
         <v>0.22</v>
@@ -4613,10 +4464,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="C21">
         <v>26134</v>
@@ -4625,7 +4476,7 @@
         <v>20990</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="F21">
         <v>0.21</v>
@@ -4644,7 +4495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E1FC8D-33C1-449B-89F7-F6F9536D1F3C}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -4674,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4682,7 +4533,7 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <v>170</v>
@@ -4691,7 +4542,7 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F2" s="4">
         <v>0.63</v>
@@ -4699,10 +4550,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C3">
         <v>218</v>
@@ -4719,10 +4570,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C4">
         <v>279</v>
@@ -4731,7 +4582,7 @@
         <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F4">
         <v>0.56000000000000005</v>
@@ -4739,10 +4590,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C5">
         <v>357</v>
@@ -4759,10 +4610,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C6">
         <v>456</v>
@@ -4779,10 +4630,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C7">
         <v>584</v>
@@ -4799,10 +4650,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C8">
         <v>748</v>
@@ -4811,7 +4662,7 @@
         <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <v>0.44</v>
@@ -4819,10 +4670,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C9">
         <v>957</v>
@@ -4839,10 +4690,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C10">
         <v>1225</v>
@@ -4851,7 +4702,7 @@
         <v>572</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F10">
         <v>0.39</v>
@@ -4859,10 +4710,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C11">
         <v>1568</v>
@@ -4879,10 +4730,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C12">
         <v>2007</v>
@@ -4891,7 +4742,7 @@
         <v>908</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="F12">
         <v>0.35</v>
@@ -4899,10 +4750,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>2569</v>
@@ -4911,7 +4762,7 @@
         <v>1144</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="F13">
         <v>0.33</v>
@@ -4919,10 +4770,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C14">
         <v>3288</v>
@@ -4931,7 +4782,7 @@
         <v>1441</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F14">
         <v>0.31</v>
@@ -4939,10 +4790,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>4209</v>
@@ -4951,7 +4802,7 @@
         <v>1816</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F15">
         <v>0.28999999999999998</v>
@@ -4959,10 +4810,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C16">
         <v>5388</v>
@@ -4971,7 +4822,7 @@
         <v>2288</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F16">
         <v>0.28000000000000003</v>
@@ -4979,10 +4830,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="C17">
         <v>6896</v>
@@ -4991,7 +4842,7 @@
         <v>2883</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="F17">
         <v>0.26</v>
@@ -4999,10 +4850,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="C18">
         <v>8827</v>
@@ -5011,7 +4862,7 @@
         <v>3632</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F18">
         <v>0.25</v>
@@ -5019,10 +4870,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C19">
         <v>11298</v>
@@ -5031,7 +4882,7 @@
         <v>4577</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="F19">
         <v>0.23</v>
@@ -5039,10 +4890,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="C20">
         <v>14462</v>
@@ -5051,7 +4902,7 @@
         <v>5767</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="F20">
         <v>0.22</v>
@@ -5059,10 +4910,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C21">
         <v>18511</v>
@@ -5071,7 +4922,7 @@
         <v>7266</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F21">
         <v>0.21</v>
@@ -5079,10 +4930,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C22">
         <v>23695</v>
@@ -5091,7 +4942,7 @@
         <v>9155</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F22">
         <v>0.2</v>
@@ -5099,10 +4950,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="C23">
         <v>30329</v>
@@ -5111,7 +4962,7 @@
         <v>11535</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="F23">
         <v>0.19</v>
@@ -5119,10 +4970,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="C24">
         <v>38821</v>
@@ -5131,7 +4982,7 @@
         <v>14534</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="F24">
         <v>0.17</v>
@@ -5139,10 +4990,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C25">
         <v>49691</v>
@@ -5151,7 +5002,7 @@
         <v>18313</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="F25">
         <v>0.16</v>
@@ -5159,10 +5010,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C26">
         <v>63605</v>
@@ -5171,7 +5022,7 @@
         <v>23075</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="F26">
         <v>0.16</v>
@@ -5190,8 +5041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDC24EE-F555-490D-9BB6-CDB5778AF096}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5220,15 +5071,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
-        <v>92</v>
+      <c r="B2">
+        <v>90</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -5245,10 +5096,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>113</v>
       </c>
       <c r="C3">
         <v>102</v>
@@ -5265,10 +5116,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>143</v>
       </c>
       <c r="C4">
         <v>130</v>
@@ -5285,10 +5136,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
       </c>
       <c r="C5">
         <v>166</v>
@@ -5305,10 +5156,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>227</v>
       </c>
       <c r="C6">
         <v>211</v>
@@ -5325,10 +5176,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>286</v>
       </c>
       <c r="C7">
         <v>270</v>
@@ -5337,7 +5188,7 @@
         <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F7" s="4">
         <v>0.75</v>
@@ -5345,10 +5196,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>360</v>
       </c>
       <c r="C8">
         <v>344</v>
@@ -5365,10 +5216,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>454</v>
       </c>
       <c r="C9">
         <v>438</v>
@@ -5385,10 +5236,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>572</v>
       </c>
       <c r="C10">
         <v>559</v>
@@ -5397,7 +5248,7 @@
         <v>445</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F10" s="4">
         <v>0.64</v>
@@ -5405,10 +5256,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>720</v>
       </c>
       <c r="C11">
         <v>712</v>
@@ -5425,10 +5276,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>908</v>
       </c>
       <c r="C12">
         <v>908</v>
@@ -5445,10 +5296,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" t="s">
-        <v>116</v>
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>1144</v>
       </c>
       <c r="C13">
         <v>1158</v>
@@ -5465,10 +5316,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>1441</v>
       </c>
       <c r="C14">
         <v>1476</v>
@@ -5485,10 +5336,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>1816</v>
       </c>
       <c r="C15">
         <v>1882</v>
@@ -5505,10 +5356,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" t="s">
-        <v>122</v>
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <v>2288</v>
       </c>
       <c r="C16">
         <v>2400</v>
@@ -5517,7 +5368,7 @@
         <v>1779</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F16" s="4">
         <v>0.48</v>
@@ -5525,10 +5376,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" t="s">
-        <v>125</v>
+        <v>109</v>
+      </c>
+      <c r="B17">
+        <v>2883</v>
       </c>
       <c r="C17">
         <v>3060</v>
@@ -5537,7 +5388,7 @@
         <v>2242</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F17" s="4">
         <v>0.46</v>
@@ -5545,10 +5396,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="B18">
+        <v>3632</v>
       </c>
       <c r="C18">
         <v>3902</v>
@@ -5557,7 +5408,7 @@
         <v>2825</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F18" s="4">
         <v>0.44</v>
@@ -5565,10 +5416,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" t="s">
-        <v>131</v>
+        <v>113</v>
+      </c>
+      <c r="B19">
+        <v>4577</v>
       </c>
       <c r="C19">
         <v>4975</v>
@@ -5577,7 +5428,7 @@
         <v>3560</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F19" s="4">
         <v>0.42</v>
@@ -5585,10 +5436,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" t="s">
-        <v>134</v>
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <v>5767</v>
       </c>
       <c r="C20">
         <v>6343</v>
@@ -5597,7 +5448,7 @@
         <v>4485</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F20" s="4">
         <v>0.4</v>
@@ -5605,10 +5456,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" t="s">
-        <v>137</v>
+        <v>117</v>
+      </c>
+      <c r="B21">
+        <v>7266</v>
       </c>
       <c r="C21">
         <v>8087</v>
@@ -5617,7 +5468,7 @@
         <v>5651</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F21" s="4">
         <v>0.38</v>
@@ -5625,10 +5476,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" t="s">
-        <v>140</v>
+        <v>119</v>
+      </c>
+      <c r="B22">
+        <v>9155</v>
       </c>
       <c r="C22">
         <v>10311</v>
@@ -5637,7 +5488,7 @@
         <v>7120</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F22" s="4">
         <v>0.36</v>
@@ -5645,10 +5496,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" t="s">
-        <v>143</v>
+        <v>121</v>
+      </c>
+      <c r="B23">
+        <v>11535</v>
       </c>
       <c r="C23">
         <v>13146</v>
@@ -5657,7 +5508,7 @@
         <v>8972</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F23" s="4">
         <v>0.34</v>
@@ -5665,10 +5516,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" t="s">
-        <v>146</v>
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>14534</v>
       </c>
       <c r="C24">
         <v>16762</v>
@@ -5677,7 +5528,7 @@
         <v>11304</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="F24" s="4">
         <v>0.33</v>
@@ -5685,10 +5536,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" t="s">
-        <v>149</v>
+        <v>125</v>
+      </c>
+      <c r="B25">
+        <v>18313</v>
       </c>
       <c r="C25">
         <v>21371</v>
@@ -5697,7 +5548,7 @@
         <v>14244</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F25" s="4">
         <v>0.31</v>
@@ -5705,10 +5556,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" t="s">
-        <v>152</v>
+        <v>127</v>
+      </c>
+      <c r="B26">
+        <v>23075</v>
       </c>
       <c r="C26">
         <v>27248</v>
@@ -5717,7 +5568,7 @@
         <v>17947</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F26" s="4">
         <v>0.3</v>
@@ -5725,10 +5576,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" t="s">
-        <v>155</v>
+        <v>129</v>
+      </c>
+      <c r="B27">
+        <v>29074</v>
       </c>
       <c r="C27">
         <v>34741</v>
@@ -5737,7 +5588,7 @@
         <v>22613</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F27" s="4">
         <v>0.28000000000000003</v>
@@ -5745,10 +5596,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" t="s">
-        <v>158</v>
+        <v>131</v>
+      </c>
+      <c r="B28">
+        <v>36633</v>
       </c>
       <c r="C28">
         <v>44295</v>
@@ -5757,7 +5608,7 @@
         <v>28493</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="F28" s="4">
         <v>0.27</v>
@@ -5765,10 +5616,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" t="s">
-        <v>161</v>
+        <v>133</v>
+      </c>
+      <c r="B29">
+        <v>46158</v>
       </c>
       <c r="C29">
         <v>56476</v>
@@ -5777,7 +5628,7 @@
         <v>35901</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F29" s="4">
         <v>0.26</v>
@@ -5785,10 +5636,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" t="s">
-        <v>164</v>
+        <v>135</v>
+      </c>
+      <c r="B30">
+        <v>58159</v>
       </c>
       <c r="C30">
         <v>72007</v>
@@ -5797,7 +5648,7 @@
         <v>45235</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="F30" s="4">
         <v>0.24</v>
@@ -5805,10 +5656,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" t="s">
-        <v>167</v>
+        <v>137</v>
+      </c>
+      <c r="B31">
+        <v>73280</v>
       </c>
       <c r="C31">
         <v>91809</v>
@@ -5817,7 +5668,7 @@
         <v>56996</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="F31" s="4">
         <v>0.23</v>
@@ -5836,8 +5687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A78664F-13AA-4FE4-8B3C-6FC0F1DC3765}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C11" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6113,7 +5964,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>1.1439999999999999</v>
+        <v>1144</v>
       </c>
       <c r="C14" s="3">
         <v>840</v>
@@ -6133,10 +5984,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>1.4530000000000001</v>
+        <v>1453</v>
       </c>
       <c r="C15" s="3">
-        <v>1.0620000000000001</v>
+        <v>1062</v>
       </c>
       <c r="D15" s="3">
         <v>655</v>
@@ -6153,10 +6004,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>1.8460000000000001</v>
+        <v>1846</v>
       </c>
       <c r="C16" s="3">
-        <v>1.343</v>
+        <v>1343</v>
       </c>
       <c r="D16" s="3">
         <v>813</v>
@@ -6173,13 +6024,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>2.3439999999999999</v>
+        <v>2344</v>
       </c>
       <c r="C17" s="3">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="D17" s="3">
-        <v>1.008</v>
+        <v>1008</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -6193,13 +6044,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>2.9769999999999999</v>
+        <v>2977</v>
       </c>
       <c r="C18" s="3">
-        <v>2.15</v>
+        <v>2150</v>
       </c>
       <c r="D18" s="3">
-        <v>1.25</v>
+        <v>1250</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -6213,13 +6064,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>3.7810000000000001</v>
+        <v>3781</v>
       </c>
       <c r="C19" s="3">
-        <v>2.72</v>
+        <v>2720</v>
       </c>
       <c r="D19" s="3">
-        <v>1.55</v>
+        <v>1550</v>
       </c>
       <c r="E19" t="s">
         <v>53</v>
@@ -6233,13 +6084,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>4.8019999999999996</v>
+        <v>4802</v>
       </c>
       <c r="C20" s="3">
-        <v>3.44</v>
+        <v>3440</v>
       </c>
       <c r="D20" s="3">
-        <v>1.9219999999999999</v>
+        <v>1922</v>
       </c>
       <c r="E20" t="s">
         <v>54</v>
@@ -6253,13 +6104,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>6.0979999999999999</v>
+        <v>6098</v>
       </c>
       <c r="C21" s="3">
-        <v>4.3520000000000003</v>
+        <v>4352</v>
       </c>
       <c r="D21" s="3">
-        <v>2.383</v>
+        <v>2383</v>
       </c>
       <c r="E21" t="s">
         <v>55</v>
@@ -6273,13 +6124,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>7.7439999999999998</v>
+        <v>7744</v>
       </c>
       <c r="C22" s="3">
-        <v>5.5049999999999999</v>
+        <v>5505</v>
       </c>
       <c r="D22" s="3">
-        <v>2.9550000000000001</v>
+        <v>2955</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
@@ -6293,13 +6144,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>9.8350000000000009</v>
+        <v>9835</v>
       </c>
       <c r="C23" s="3">
-        <v>6.9640000000000004</v>
+        <v>6964</v>
       </c>
       <c r="D23" s="3">
-        <v>3.6640000000000001</v>
+        <v>3664</v>
       </c>
       <c r="E23" t="s">
         <v>57</v>
@@ -6313,13 +6164,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>12.491</v>
+        <v>12491</v>
       </c>
       <c r="C24" s="3">
-        <v>8.81</v>
+        <v>8810</v>
       </c>
       <c r="D24" s="3">
-        <v>4.5430000000000001</v>
+        <v>4543</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
@@ -6333,13 +6184,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>15.863</v>
+        <v>15863</v>
       </c>
       <c r="C25" s="3">
-        <v>11.144</v>
+        <v>11144</v>
       </c>
       <c r="D25" s="3">
-        <v>5.633</v>
+        <v>5633</v>
       </c>
       <c r="E25" t="s">
         <v>59</v>
@@ -6353,13 +6204,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>20.146999999999998</v>
+        <v>20147</v>
       </c>
       <c r="C26" s="3">
-        <v>14.098000000000001</v>
+        <v>14098</v>
       </c>
       <c r="D26" s="3">
-        <v>6.9850000000000003</v>
+        <v>6985</v>
       </c>
       <c r="E26" t="s">
         <v>60</v>
@@ -6373,13 +6224,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>25.585999999999999</v>
+        <v>25586</v>
       </c>
       <c r="C27" s="3">
-        <v>17.832999999999998</v>
+        <v>17833</v>
       </c>
       <c r="D27" s="3">
-        <v>8.6620000000000008</v>
+        <v>8662</v>
       </c>
       <c r="E27" t="s">
         <v>61</v>
@@ -6393,13 +6244,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>32.494999999999997</v>
+        <v>32494.999999999996</v>
       </c>
       <c r="C28" s="3">
-        <v>22.559000000000001</v>
+        <v>22559</v>
       </c>
       <c r="D28" s="3">
-        <v>10.74</v>
+        <v>10740</v>
       </c>
       <c r="E28" t="s">
         <v>62</v>
@@ -6413,13 +6264,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>41.268000000000001</v>
+        <v>41268</v>
       </c>
       <c r="C29" s="3">
-        <v>28.536999999999999</v>
+        <v>28537</v>
       </c>
       <c r="D29" s="3">
-        <v>13.318</v>
+        <v>13318</v>
       </c>
       <c r="E29" t="s">
         <v>63</v>
@@ -6433,13 +6284,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>52.41</v>
+        <v>52410</v>
       </c>
       <c r="C30" s="3">
-        <v>36.1</v>
+        <v>36100</v>
       </c>
       <c r="D30" s="3">
-        <v>16.515000000000001</v>
+        <v>16515</v>
       </c>
       <c r="E30" t="s">
         <v>64</v>
@@ -6453,13 +6304,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>66.561000000000007</v>
+        <v>66561</v>
       </c>
       <c r="C31" s="3">
-        <v>45.665999999999997</v>
+        <v>45666</v>
       </c>
       <c r="D31" s="3">
-        <v>20.478000000000002</v>
+        <v>20478</v>
       </c>
       <c r="E31" t="s">
         <v>65</v>
@@ -6480,8 +6331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E571B693-BEDD-4274-B574-EF5C4B31FF82}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6513,7 +6364,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -6533,7 +6384,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -6553,7 +6404,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -6573,7 +6424,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -6593,7 +6444,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -6613,7 +6464,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -6633,7 +6484,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -6653,7 +6504,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -6673,7 +6524,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="3">
@@ -6693,7 +6544,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3">
@@ -6713,7 +6564,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3">
@@ -6733,7 +6584,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="3">
@@ -6753,14 +6604,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>1.113</v>
+        <v>1113</v>
       </c>
       <c r="C14" s="3">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="D14" s="3">
         <v>925</v>
@@ -6773,17 +6624,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>1.393</v>
+        <v>1393</v>
       </c>
       <c r="C15" s="3">
-        <v>1.5289999999999999</v>
+        <v>1529</v>
       </c>
       <c r="D15" s="3">
-        <v>1.147</v>
+        <v>1147</v>
       </c>
       <c r="E15" t="s">
         <v>74</v>
@@ -6793,17 +6644,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>1.744</v>
+        <v>1744</v>
       </c>
       <c r="C16" s="3">
-        <v>1.95</v>
+        <v>1950</v>
       </c>
       <c r="D16" s="3">
-        <v>1.4219999999999999</v>
+        <v>1422</v>
       </c>
       <c r="E16" t="s">
         <v>75</v>
@@ -6813,17 +6664,17 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>2.1829999999999998</v>
+        <v>2183</v>
       </c>
       <c r="C17" s="3">
-        <v>2.4860000000000002</v>
+        <v>2486</v>
       </c>
       <c r="D17" s="3">
-        <v>1.764</v>
+        <v>1764</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
@@ -6833,17 +6684,17 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>2.734</v>
+        <v>2734</v>
       </c>
       <c r="C18" s="3">
-        <v>3.17</v>
+        <v>3170</v>
       </c>
       <c r="D18" s="3">
-        <v>2.1869999999999998</v>
+        <v>2187</v>
       </c>
       <c r="E18" t="s">
         <v>77</v>
@@ -6853,17 +6704,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>3.4220000000000002</v>
+        <v>3422</v>
       </c>
       <c r="C19" s="3">
-        <v>4.0419999999999998</v>
+        <v>4042</v>
       </c>
       <c r="D19" s="3">
-        <v>2.7120000000000002</v>
+        <v>2712</v>
       </c>
       <c r="E19" t="s">
         <v>78</v>
@@ -6873,17 +6724,17 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>4.2850000000000001</v>
+        <v>4285</v>
       </c>
       <c r="C20" s="3">
-        <v>5.1529999999999996</v>
+        <v>5153</v>
       </c>
       <c r="D20" s="3">
-        <v>3.363</v>
+        <v>3363</v>
       </c>
       <c r="E20" t="s">
         <v>79</v>
@@ -6893,17 +6744,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>5.3650000000000002</v>
+        <v>5365</v>
       </c>
       <c r="C21" s="3">
-        <v>6.5709999999999997</v>
+        <v>6571</v>
       </c>
       <c r="D21" s="3">
-        <v>4.17</v>
+        <v>4170</v>
       </c>
       <c r="E21" t="s">
         <v>80</v>
@@ -6913,17 +6764,17 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>6.7169999999999996</v>
+        <v>6717</v>
       </c>
       <c r="C22" s="3">
-        <v>8.3780000000000001</v>
+        <v>8378</v>
       </c>
       <c r="D22" s="3">
-        <v>5.17</v>
+        <v>5170</v>
       </c>
       <c r="E22" t="s">
         <v>81</v>
@@ -6933,19 +6784,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>8.4090000000000007</v>
+        <v>8409</v>
       </c>
       <c r="C23" s="3">
-        <v>10.680999999999999</v>
+        <v>10681</v>
       </c>
       <c r="D23" s="3">
-        <v>6.4109999999999996</v>
-      </c>
-      <c r="E23" t="s">
+        <v>6411</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F23">
@@ -6953,17 +6804,17 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>10.528</v>
+        <v>10528</v>
       </c>
       <c r="C24" s="3">
-        <v>13.619</v>
+        <v>13619</v>
       </c>
       <c r="D24" s="3">
-        <v>7.95</v>
+        <v>7950</v>
       </c>
       <c r="E24" t="s">
         <v>83</v>
@@ -6973,17 +6824,17 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>13.180999999999999</v>
+        <v>13181</v>
       </c>
       <c r="C25" s="3">
-        <v>17.364000000000001</v>
+        <v>17364</v>
       </c>
       <c r="D25" s="3">
-        <v>9.8580000000000005</v>
+        <v>9858</v>
       </c>
       <c r="E25" t="s">
         <v>84</v>
@@ -6993,17 +6844,17 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>16.503</v>
+        <v>16503</v>
       </c>
       <c r="C26" s="3">
-        <v>22.138999999999999</v>
+        <v>22139</v>
       </c>
       <c r="D26" s="3">
-        <v>12.224</v>
+        <v>12224</v>
       </c>
       <c r="E26" t="s">
         <v>85</v>
@@ -7013,17 +6864,17 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>20.661999999999999</v>
+        <v>20662</v>
       </c>
       <c r="C27" s="3">
-        <v>28.227</v>
+        <v>28227</v>
       </c>
       <c r="D27" s="3">
-        <v>15.157999999999999</v>
+        <v>15158</v>
       </c>
       <c r="E27" t="s">
         <v>86</v>
@@ -7033,17 +6884,17 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>25.869</v>
+        <v>25869</v>
       </c>
       <c r="C28" s="3">
-        <v>35.99</v>
+        <v>35990</v>
       </c>
       <c r="D28" s="3">
-        <v>18.795999999999999</v>
+        <v>18796</v>
       </c>
       <c r="E28" t="s">
         <v>87</v>
@@ -7053,17 +6904,17 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>32.387999999999998</v>
+        <v>32387.999999999996</v>
       </c>
       <c r="C29" s="3">
-        <v>45.887</v>
+        <v>45887</v>
       </c>
       <c r="D29" s="3">
-        <v>23.306999999999999</v>
+        <v>23307</v>
       </c>
       <c r="E29" t="s">
         <v>88</v>
@@ -7073,17 +6924,17 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>40.548999999999999</v>
+        <v>40549</v>
       </c>
       <c r="C30" s="3">
-        <v>58.506</v>
+        <v>58506</v>
       </c>
       <c r="D30" s="3">
-        <v>28.9</v>
+        <v>28900</v>
       </c>
       <c r="E30" t="s">
         <v>89</v>
@@ -7093,17 +6944,17 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>50.768000000000001</v>
+        <v>50768</v>
       </c>
       <c r="C31" s="3">
-        <v>74.594999999999999</v>
+        <v>74595</v>
       </c>
       <c r="D31" s="3">
-        <v>35.837000000000003</v>
+        <v>35837</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
@@ -7114,8 +6965,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7125,7 +6977,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7156,15 +7008,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
-        <v>292</v>
+      <c r="B2">
+        <v>12000</v>
       </c>
       <c r="C2">
         <v>14000</v>
@@ -7173,18 +7025,18 @@
         <v>10000</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>295</v>
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>14040</v>
       </c>
       <c r="C3">
         <v>16380</v>
@@ -7193,18 +7045,18 @@
         <v>11800</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>298</v>
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>16427</v>
       </c>
       <c r="C4">
         <v>19165</v>
@@ -7213,18 +7065,18 @@
         <v>13924</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>301</v>
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>19219</v>
       </c>
       <c r="C5">
         <v>22423</v>
@@ -7233,18 +7085,18 @@
         <v>16430</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>304</v>
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>22487</v>
       </c>
       <c r="C6">
         <v>26234</v>
@@ -7253,18 +7105,18 @@
         <v>19388</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="F6" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>307</v>
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>26309</v>
       </c>
       <c r="C7">
         <v>30694</v>
@@ -7273,18 +7125,18 @@
         <v>22878</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>310</v>
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>30782</v>
       </c>
       <c r="C8">
         <v>35912</v>
@@ -7293,18 +7145,18 @@
         <v>26996</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>313</v>
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>36015</v>
       </c>
       <c r="C9">
         <v>42017</v>
@@ -7313,18 +7165,18 @@
         <v>31855</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="F9" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>316</v>
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>42137</v>
       </c>
       <c r="C10">
         <v>49160</v>
@@ -7333,18 +7185,18 @@
         <v>37589</v>
       </c>
       <c r="E10" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>319</v>
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>49301</v>
       </c>
       <c r="C11">
         <v>57518</v>
@@ -7353,18 +7205,18 @@
         <v>44355</v>
       </c>
       <c r="E11" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="F11" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" t="s">
-        <v>322</v>
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>57682</v>
       </c>
       <c r="C12">
         <v>67296</v>
@@ -7373,18 +7225,18 @@
         <v>52338</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" t="s">
-        <v>325</v>
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>67488</v>
       </c>
       <c r="C13">
         <v>78736</v>
@@ -7393,18 +7245,18 @@
         <v>61759</v>
       </c>
       <c r="E13" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" t="s">
-        <v>328</v>
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>78961</v>
       </c>
       <c r="C14">
         <v>92121</v>
@@ -7413,18 +7265,18 @@
         <v>72876</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" t="s">
-        <v>331</v>
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>92384</v>
       </c>
       <c r="C15">
         <v>107782</v>
@@ -7433,18 +7285,18 @@
         <v>85994</v>
       </c>
       <c r="E15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" t="s">
-        <v>334</v>
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <v>108089</v>
       </c>
       <c r="C16">
         <v>126104</v>
@@ -7453,18 +7305,18 @@
         <v>101472</v>
       </c>
       <c r="E16" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="F16" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" t="s">
-        <v>337</v>
+        <v>109</v>
+      </c>
+      <c r="B17">
+        <v>126465</v>
       </c>
       <c r="C17">
         <v>147542</v>
@@ -7473,18 +7325,18 @@
         <v>119737</v>
       </c>
       <c r="E17" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="F17" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s">
-        <v>340</v>
+        <v>111</v>
+      </c>
+      <c r="B18">
+        <v>147964</v>
       </c>
       <c r="C18">
         <v>172624</v>
@@ -7493,18 +7345,18 @@
         <v>141290</v>
       </c>
       <c r="E18" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="F18" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" t="s">
-        <v>343</v>
+        <v>113</v>
+      </c>
+      <c r="B19">
+        <v>173117</v>
       </c>
       <c r="C19">
         <v>201970</v>
@@ -7513,18 +7365,18 @@
         <v>166722</v>
       </c>
       <c r="E19" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="F19" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" t="s">
-        <v>346</v>
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <v>202547</v>
       </c>
       <c r="C20">
         <v>236000</v>
@@ -7533,18 +7385,18 @@
         <v>196733</v>
       </c>
       <c r="E20" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="F20" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" t="s">
-        <v>349</v>
+        <v>117</v>
+      </c>
+      <c r="B21">
+        <v>236981</v>
       </c>
       <c r="C21">
         <v>276477</v>
@@ -7553,10 +7405,10 @@
         <v>232144</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F21" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -7598,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7715,7 +7567,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>0.24</v>
@@ -7775,7 +7627,7 @@
         <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>0.39</v>
@@ -7895,7 +7747,7 @@
         <v>508</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F16">
         <v>0.72</v>
@@ -7915,7 +7767,7 @@
         <v>641</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F17">
         <v>0.79</v>
@@ -7935,7 +7787,7 @@
         <v>807</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F18">
         <v>0.85</v>
@@ -7955,7 +7807,7 @@
         <v>1017</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F19">
         <v>0.92</v>
@@ -7975,7 +7827,7 @@
         <v>1281</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F20">
         <v>0.99</v>
@@ -7995,7 +7847,7 @@
         <v>1615</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F21">
         <v>1.07</v>
@@ -8042,7 +7894,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8059,7 +7911,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -8079,7 +7931,7 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -8099,7 +7951,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F4">
         <v>267</v>
@@ -8119,7 +7971,7 @@
         <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="F5">
         <v>356</v>
@@ -8139,7 +7991,7 @@
         <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="F6">
         <v>474</v>
@@ -8159,7 +8011,7 @@
         <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="F7">
         <v>632</v>
@@ -8179,7 +8031,7 @@
         <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="F8">
         <v>843</v>
@@ -8257,7 +8109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696070F-2747-4E4E-A8A9-C23CAD4F8BA0}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -8286,7 +8138,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8303,7 +8155,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F2">
         <v>1000</v>
@@ -8323,7 +8175,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F3">
         <v>1229</v>
@@ -8343,7 +8195,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F4">
         <v>1512</v>
@@ -8363,7 +8215,7 @@
         <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F5">
         <v>1859</v>
@@ -8383,7 +8235,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F6">
         <v>2285</v>
@@ -8403,7 +8255,7 @@
         <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F7">
         <v>2810</v>
@@ -8423,7 +8275,7 @@
         <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F8">
         <v>3454</v>
@@ -8443,7 +8295,7 @@
         <v>185</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F9">
         <v>4247</v>
@@ -8463,7 +8315,7 @@
         <v>231</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F10">
         <v>5222</v>
@@ -8483,7 +8335,7 @@
         <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F11">
         <v>6420</v>
@@ -8503,7 +8355,7 @@
         <v>358</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F12">
         <v>7893</v>
@@ -8523,7 +8375,7 @@
         <v>446</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F13">
         <v>9705</v>
@@ -8543,7 +8395,7 @@
         <v>555</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F14">
         <v>11932</v>
@@ -8563,7 +8415,7 @@
         <v>691</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F15">
         <v>14670</v>
@@ -8583,7 +8435,7 @@
         <v>860</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F16">
         <v>18037</v>
@@ -8603,7 +8455,7 @@
         <v>1071</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F17">
         <v>22177</v>
@@ -8623,7 +8475,7 @@
         <v>1333</v>
       </c>
       <c r="E18" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F18">
         <v>27266</v>
@@ -8643,7 +8495,7 @@
         <v>1659</v>
       </c>
       <c r="E19" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F19">
         <v>33523</v>
@@ -8663,7 +8515,7 @@
         <v>2066</v>
       </c>
       <c r="E20" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F20">
         <v>41217</v>
@@ -8683,7 +8535,7 @@
         <v>2572</v>
       </c>
       <c r="E21" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F21">
         <v>50675</v>
@@ -8703,7 +8555,7 @@
         <v>3202</v>
       </c>
       <c r="E22" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F22">
         <v>62305</v>
@@ -8723,7 +8575,7 @@
         <v>3987</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F23">
         <v>76604</v>
@@ -8743,7 +8595,7 @@
         <v>4963</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F24">
         <v>94184</v>
@@ -8763,7 +8615,7 @@
         <v>6180</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F25">
         <v>115798</v>
@@ -8783,7 +8635,7 @@
         <v>7694</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F26">
         <v>142373</v>
@@ -8803,7 +8655,7 @@
         <v>9578</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F27">
         <v>175047</v>
@@ -8823,7 +8675,7 @@
         <v>11925</v>
       </c>
       <c r="E28" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F28">
         <v>215219</v>
@@ -8843,7 +8695,7 @@
         <v>14847</v>
       </c>
       <c r="E29" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F29">
         <v>264611</v>
@@ -8863,7 +8715,7 @@
         <v>18484</v>
       </c>
       <c r="E30" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F30">
         <v>325337</v>
@@ -8883,7 +8735,7 @@
         <v>23013</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F31">
         <v>400000</v>
@@ -8901,7 +8753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2C6596-521C-4EFF-B06E-38E6F4E13C3D}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -8930,7 +8782,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8947,7 +8799,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F2">
         <v>240</v>
@@ -8967,7 +8819,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F3">
         <v>281</v>
@@ -8987,7 +8839,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F4">
         <v>329</v>
@@ -9007,7 +8859,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F5">
         <v>386</v>
@@ -9027,7 +8879,7 @@
         <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F6">
         <v>452</v>
@@ -9047,7 +8899,7 @@
         <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F7">
         <v>530</v>
@@ -9067,7 +8919,7 @@
         <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F8">
         <v>622</v>
@@ -9087,7 +8939,7 @@
         <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F9">
         <v>729</v>
@@ -9107,7 +8959,7 @@
         <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F10">
         <v>854</v>
@@ -9127,7 +8979,7 @@
         <v>297</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F11">
         <v>1002</v>
@@ -9147,7 +8999,7 @@
         <v>383</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F12">
         <v>1174</v>
@@ -9167,7 +9019,7 @@
         <v>494</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F13">
         <v>1376</v>
@@ -9187,7 +9039,7 @@
         <v>637</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F14">
         <v>1613</v>
@@ -9207,7 +9059,7 @@
         <v>822</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F15">
         <v>1891</v>
@@ -9227,7 +9079,7 @@
         <v>1060</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F16">
         <v>2216</v>
@@ -9247,7 +9099,7 @@
         <v>1368</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F17">
         <v>2598</v>
@@ -9267,7 +9119,7 @@
         <v>1764</v>
       </c>
       <c r="E18" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F18">
         <v>3045</v>
@@ -9287,7 +9139,7 @@
         <v>2276</v>
       </c>
       <c r="E19" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F19">
         <v>3569</v>
@@ -9307,7 +9159,7 @@
         <v>2936</v>
       </c>
       <c r="E20" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F20">
         <v>4183</v>
@@ -9327,7 +9179,7 @@
         <v>3787</v>
       </c>
       <c r="E21" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F21">
         <v>4904</v>
@@ -9347,7 +9199,7 @@
         <v>4886</v>
       </c>
       <c r="E22" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F22">
         <v>5748</v>
@@ -9367,7 +9219,7 @@
         <v>6302</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F23">
         <v>6737</v>
@@ -9387,7 +9239,7 @@
         <v>8130</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F24">
         <v>7896</v>
@@ -9407,7 +9259,7 @@
         <v>10488</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F25">
         <v>9255</v>
@@ -9427,7 +9279,7 @@
         <v>13529</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F26">
         <v>10848</v>
@@ -9447,7 +9299,7 @@
         <v>17453</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F27">
         <v>12715</v>
@@ -9467,7 +9319,7 @@
         <v>22514</v>
       </c>
       <c r="E28" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F28">
         <v>14904</v>
@@ -9487,7 +9339,7 @@
         <v>29043</v>
       </c>
       <c r="E29" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F29">
         <v>17469</v>
@@ -9507,7 +9359,7 @@
         <v>37466</v>
       </c>
       <c r="E30" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F30">
         <v>20476</v>
@@ -9527,7 +9379,7 @@
         <v>48331</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F31">
         <v>24000</v>
@@ -9545,7 +9397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B443C5A-6C25-4009-A9C3-6BDC784A9235}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -9574,7 +9426,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -9591,7 +9443,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -9611,7 +9463,7 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -9631,7 +9483,7 @@
         <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -9651,7 +9503,7 @@
         <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -9671,7 +9523,7 @@
         <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -9691,7 +9543,7 @@
         <v>318</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -9711,7 +9563,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -9731,7 +9583,7 @@
         <v>504</v>
       </c>
       <c r="E9" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -9751,7 +9603,7 @@
         <v>635</v>
       </c>
       <c r="E10" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -9771,7 +9623,7 @@
         <v>800</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -9791,7 +9643,7 @@
         <v>1009</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -9811,7 +9663,7 @@
         <v>1271</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F13">
         <v>14</v>
@@ -9831,7 +9683,7 @@
         <v>1601</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="F14">
         <v>19</v>
@@ -9851,7 +9703,7 @@
         <v>2018</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="F15">
         <v>26</v>
@@ -9871,7 +9723,7 @@
         <v>2542</v>
       </c>
       <c r="E16" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="F16">
         <v>35</v>
@@ -9891,7 +9743,7 @@
         <v>3203</v>
       </c>
       <c r="E17" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F17">
         <v>46</v>
@@ -9911,7 +9763,7 @@
         <v>4036</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="F18">
         <v>59</v>
@@ -9931,7 +9783,7 @@
         <v>5085</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="F19">
         <v>74</v>
@@ -9951,7 +9803,7 @@
         <v>6407</v>
       </c>
       <c r="E20" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="F20">
         <v>91</v>
@@ -9971,7 +9823,7 @@
         <v>8073</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="F21">
         <v>110</v>
@@ -9991,7 +9843,7 @@
         <v>10172</v>
       </c>
       <c r="E22" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F22">
         <v>131</v>
@@ -10011,7 +9863,7 @@
         <v>12817</v>
       </c>
       <c r="E23" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="F23">
         <v>154</v>
@@ -10031,7 +9883,7 @@
         <v>16149</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="F24">
         <v>179</v>
@@ -10051,7 +9903,7 @@
         <v>20348</v>
       </c>
       <c r="E25" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="F25">
         <v>206</v>
@@ -10071,7 +9923,7 @@
         <v>25639</v>
       </c>
       <c r="E26" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="F26">
         <v>235</v>
